--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-immunization.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-immunization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="442">
   <si>
     <t>Property</t>
   </si>
@@ -283,544 +283,548 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>このResourceに対する論理ID</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Immunization.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Immunization.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Immunization.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Immunization.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Immunization.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Immunization.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>dueDateOfNextDose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Immunization_DueDateOfNextDose}
+</t>
+  </si>
+  <si>
+    <t>次回接種予定日</t>
+  </si>
+  <si>
+    <t>次回接種を予定している日、期限</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>manufacturedDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Immunization_ManufacturedDate}
+</t>
+  </si>
+  <si>
+    <t>製造年月日</t>
+  </si>
+  <si>
+    <t>ワクチンが製造された年月日</t>
+  </si>
+  <si>
+    <t>certificatedDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Immunization_CertificatedDate}
+</t>
+  </si>
+  <si>
+    <t>検定年月日</t>
+  </si>
+  <si>
+    <t>ワクチンが検定された年月日</t>
+  </si>
+  <si>
+    <t>Immunization.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Immunization.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Business identifier</t>
+  </si>
+  <si>
+    <t>A unique identifier assigned to this immunization record.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/id</t>
+  </si>
+  <si>
+    <t>Immunization.status</t>
+  </si>
+  <si>
+    <t>completed | entered-in-error | not-done</t>
+  </si>
+  <si>
+    <t>予防接種記録の現在の状態を示すコード</t>
+  </si>
+  <si>
+    <t>Will generally be set to show that the immunization has been completed or not done.  This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>予防接種の現在の状態を表すコード</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>statusCode</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Immunization.statusReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>実施しなかった理由</t>
+  </si>
+  <si>
+    <t>Indicates the reason the immunization event was not performed.</t>
+  </si>
+  <si>
+    <t>This is generally only used for the status of "not-done". The reason for performing the immunization event is captured in reasonCode, not here.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>The reason why a vaccine was not administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-status-reason</t>
+  </si>
+  <si>
+    <t>Event.statusReason</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN].reasonCOde</t>
+  </si>
+  <si>
+    <t>Immunization.vaccineCode</t>
+  </si>
+  <si>
+    <t>接種されたワクチン製剤</t>
+  </si>
+  <si>
+    <t>接種されたあるいは接種予定のワクチン。</t>
+  </si>
+  <si>
+    <t>全てのターミノロジーがこのパターンに当てはまるわけではない。モデルによってはCodeableConceptではなく，独自構造でCodingを直接指定して文書やコーディング，その解釈や事前条件や事後条件との関連について示される。</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCode_Immunization_VS</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>RXA-5</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacturedMaterial/realmCode/code</t>
+  </si>
+  <si>
+    <t>Immunization.patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient)
+</t>
+  </si>
+  <si>
+    <t>予防接種を受けた人</t>
+  </si>
+  <si>
+    <t>予防接種を受けた，あるいは受けなかった患者。</t>
+  </si>
+  <si>
+    <t>Event.subject</t>
+  </si>
+  <si>
+    <t>PID-3</t>
+  </si>
+  <si>
+    <t>.partipication[ttypeCode=].role</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>Immunization.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Encounter)
+</t>
+  </si>
+  <si>
+    <t>予防接種を受けた診察</t>
+  </si>
+  <si>
+    <t>患者が医療従事者から予防接種を受けた外来，入院あるいは他の対面の状態を表す。</t>
+  </si>
+  <si>
+    <t>Event.context</t>
+  </si>
+  <si>
+    <t>PV1-19</t>
+  </si>
+  <si>
+    <t>component-&gt;EncounterEvent</t>
+  </si>
+  <si>
+    <t>FiveWs.context</t>
+  </si>
+  <si>
+    <t>Immunization.occurrence[x]</t>
+  </si>
+  <si>
+    <t>dateTime
+string</t>
+  </si>
+  <si>
+    <t>ワクチンを接種した日時</t>
+  </si>
+  <si>
+    <t>ワクチンを接種した日あるいは接種予定だった日。</t>
+  </si>
+  <si>
+    <t>When immunizations are given a specific date and time should always be known.   When immunizations are patient reported, a specific date might not be known.  Although partial dates are allowed, an adult patient might not be able to recall the year a childhood immunization was given. An exact date is always preferable, but the use of the String data type is acceptable when an exact date is not known. A small number of vaccines (e.g. live oral typhoid vaccine) are given as a series of patient self-administered dose over a span of time. In cases like this, often, only the first dose (typically a provider supervised dose) is recorded with the occurrence indicating the date/time of the first dose.</t>
+  </si>
+  <si>
+    <t>Event.occurrence[x]</t>
+  </si>
+  <si>
+    <t>RXA-3</t>
+  </si>
+  <si>
+    <t>.effectiveTime</t>
+  </si>
+  <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/effectiveTime/value</t>
+  </si>
+  <si>
+    <t>Immunization.recorded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>予防接種を受けた対象者の記録として最初に記載された日。</t>
+  </si>
+  <si>
+    <t>The date the occurrence of the immunization was first captured in the record - potentially significantly after the occurrence of the event.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=AUT].time</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>Immunization.primarySource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>Indicates context the data was recorded in</t>
+  </si>
+  <si>
+    <t>An indication that the content of the record is based on information from the person who administered the vaccine. This reflects the context under which the data was originally recorded.</t>
+  </si>
+  <si>
+    <t>Reflects the “reliability” of the content.</t>
+  </si>
+  <si>
+    <t>RXA-9</t>
+  </si>
+  <si>
+    <t>immunization.uncertaintycode (if primary source=false, uncertainty=U)</t>
+  </si>
+  <si>
+    <t>FiveWs.source</t>
+  </si>
+  <si>
+    <t>Immunization.reportOrigin</t>
+  </si>
+  <si>
+    <t>二次的に報告された記録の発生源を示す</t>
+  </si>
+  <si>
+    <t>予防接種を実施した時に，ワクチンを接種した人以外からの報告からの情報である場合のデータの発生源。</t>
+  </si>
+  <si>
+    <t>Should not be populated if primarySource = True, not required even if primarySource = False.</t>
+  </si>
+  <si>
+    <t>The source of the data for a record which is not from a primary source.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-origin</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=INF].role[classCode=PAT] (this syntax for self-reported) .participation[typeCode=INF].role[classCode=LIC] (this syntax for health care professional) .participation[typeCode=INF].role[classCode=PRS] (this syntax for family member)</t>
+  </si>
+  <si>
+    <t>Immunization.location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Location)
+</t>
+  </si>
+  <si>
+    <t>ワクチンを接種した場所</t>
+  </si>
+  <si>
+    <t>接種医療機関。ワクチン接種がどこで実施されたかを表す。サービスが提供された場所。摂取された身体部位ではない。</t>
+  </si>
+  <si>
+    <t>Event.location</t>
+  </si>
+  <si>
+    <t>RXA-27  (or RXA-11, deprecated as of v2.7)</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=LOC].COCT_MT240000UV</t>
+  </si>
+  <si>
+    <t>FiveWs.where[x]</t>
+  </si>
+  <si>
+    <t>Immunization.manufacturer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>ワクチンメーカー</t>
+  </si>
+  <si>
+    <t>ワクチメーカーの名前。</t>
+  </si>
+  <si>
+    <t>RXA-17</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=CSM].role[classCode=INST].scopedRole.scoper[classCode=ORG]</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacuturerOrganization/name</t>
+  </si>
+  <si>
+    <t>Immunization.lotNumber</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>このResourceに対する論理ID</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Immunization.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Immunization.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Immunization.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Immunization.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Immunization.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Immunization.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>dueDateOfNextDose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Immunization_DueDateOfNextDose}
-</t>
-  </si>
-  <si>
-    <t>次回接種予定日</t>
-  </si>
-  <si>
-    <t>次回接種を予定している日、期限</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>manufacturedDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Immunization_ManufacturedDate}
-</t>
-  </si>
-  <si>
-    <t>製造年月日</t>
-  </si>
-  <si>
-    <t>ワクチンが製造された年月日</t>
-  </si>
-  <si>
-    <t>certificatedDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Immunization_CertificatedDate}
-</t>
-  </si>
-  <si>
-    <t>検定年月日</t>
-  </si>
-  <si>
-    <t>ワクチンが検定された年月日</t>
-  </si>
-  <si>
-    <t>Immunization.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Immunization.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Business identifier</t>
-  </si>
-  <si>
-    <t>A unique identifier assigned to this immunization record.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/id</t>
-  </si>
-  <si>
-    <t>Immunization.status</t>
-  </si>
-  <si>
-    <t>completed | entered-in-error | not-done</t>
-  </si>
-  <si>
-    <t>予防接種記録の現在の状態を示すコード</t>
-  </si>
-  <si>
-    <t>Will generally be set to show that the immunization has been completed or not done.  This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>予防接種の現在の状態を表すコード</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>statusCode</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Immunization.statusReason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>実施しなかった理由</t>
-  </si>
-  <si>
-    <t>Indicates the reason the immunization event was not performed.</t>
-  </si>
-  <si>
-    <t>This is generally only used for the status of "not-done". The reason for performing the immunization event is captured in reasonCode, not here.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>The reason why a vaccine was not administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-status-reason</t>
-  </si>
-  <si>
-    <t>Event.statusReason</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN].reasonCOde</t>
-  </si>
-  <si>
-    <t>Immunization.vaccineCode</t>
-  </si>
-  <si>
-    <t>接種されたワクチン製剤</t>
-  </si>
-  <si>
-    <t>接種されたあるいは接種予定のワクチン。</t>
-  </si>
-  <si>
-    <t>全てのターミノロジーがこのパターンに当てはまるわけではない。モデルによってはCodeableConceptではなく，独自構造でCodingを直接指定して文書やコーディング，その解釈や事前条件や事後条件との関連について示される。</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCode_Immunization_VS</t>
-  </si>
-  <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>RXA-5</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacturedMaterial/realmCode/code</t>
-  </si>
-  <si>
-    <t>Immunization.patient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient)
-</t>
-  </si>
-  <si>
-    <t>予防接種を受けた人</t>
-  </si>
-  <si>
-    <t>予防接種を受けた，あるいは受けなかった患者。</t>
-  </si>
-  <si>
-    <t>Event.subject</t>
-  </si>
-  <si>
-    <t>PID-3</t>
-  </si>
-  <si>
-    <t>.partipication[ttypeCode=].role</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>Immunization.encounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Encounter)
-</t>
-  </si>
-  <si>
-    <t>予防接種を受けた診察</t>
-  </si>
-  <si>
-    <t>患者が医療従事者から予防接種を受けた外来，入院あるいは他の対面の状態を表す。</t>
-  </si>
-  <si>
-    <t>Event.context</t>
-  </si>
-  <si>
-    <t>PV1-19</t>
-  </si>
-  <si>
-    <t>component-&gt;EncounterEvent</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
-  </si>
-  <si>
-    <t>Immunization.occurrence[x]</t>
-  </si>
-  <si>
-    <t>dateTime
-string</t>
-  </si>
-  <si>
-    <t>ワクチンを接種した日時</t>
-  </si>
-  <si>
-    <t>ワクチンを接種した日あるいは接種予定だった日。</t>
-  </si>
-  <si>
-    <t>When immunizations are given a specific date and time should always be known.   When immunizations are patient reported, a specific date might not be known.  Although partial dates are allowed, an adult patient might not be able to recall the year a childhood immunization was given. An exact date is always preferable, but the use of the String data type is acceptable when an exact date is not known. A small number of vaccines (e.g. live oral typhoid vaccine) are given as a series of patient self-administered dose over a span of time. In cases like this, often, only the first dose (typically a provider supervised dose) is recorded with the occurrence indicating the date/time of the first dose.</t>
-  </si>
-  <si>
-    <t>Event.occurrence[x]</t>
-  </si>
-  <si>
-    <t>RXA-3</t>
-  </si>
-  <si>
-    <t>.effectiveTime</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/effectiveTime/value</t>
-  </si>
-  <si>
-    <t>Immunization.recorded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>予防接種を受けた対象者の記録として最初に記載された日。</t>
-  </si>
-  <si>
-    <t>The date the occurrence of the immunization was first captured in the record - potentially significantly after the occurrence of the event.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=AUT].time</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>Immunization.primarySource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>Indicates context the data was recorded in</t>
-  </si>
-  <si>
-    <t>An indication that the content of the record is based on information from the person who administered the vaccine. This reflects the context under which the data was originally recorded.</t>
-  </si>
-  <si>
-    <t>Reflects the “reliability” of the content.</t>
-  </si>
-  <si>
-    <t>RXA-9</t>
-  </si>
-  <si>
-    <t>immunization.uncertaintycode (if primary source=false, uncertainty=U)</t>
-  </si>
-  <si>
-    <t>FiveWs.source</t>
-  </si>
-  <si>
-    <t>Immunization.reportOrigin</t>
-  </si>
-  <si>
-    <t>二次的に報告された記録の発生源を示す</t>
-  </si>
-  <si>
-    <t>予防接種を実施した時に，ワクチンを接種した人以外からの報告からの情報である場合のデータの発生源。</t>
-  </si>
-  <si>
-    <t>Should not be populated if primarySource = True, not required even if primarySource = False.</t>
-  </si>
-  <si>
-    <t>The source of the data for a record which is not from a primary source.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-origin</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=INF].role[classCode=PAT] (this syntax for self-reported) .participation[typeCode=INF].role[classCode=LIC] (this syntax for health care professional) .participation[typeCode=INF].role[classCode=PRS] (this syntax for family member)</t>
-  </si>
-  <si>
-    <t>Immunization.location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Location)
-</t>
-  </si>
-  <si>
-    <t>ワクチンを接種した場所</t>
-  </si>
-  <si>
-    <t>接種医療機関。ワクチン接種がどこで実施されたかを表す。サービスが提供された場所。摂取された身体部位ではない。</t>
-  </si>
-  <si>
-    <t>Event.location</t>
-  </si>
-  <si>
-    <t>RXA-27  (or RXA-11, deprecated as of v2.7)</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=LOC].COCT_MT240000UV</t>
-  </si>
-  <si>
-    <t>FiveWs.where[x]</t>
-  </si>
-  <si>
-    <t>Immunization.manufacturer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>ワクチンメーカー</t>
-  </si>
-  <si>
-    <t>ワクチメーカーの名前。</t>
-  </si>
-  <si>
-    <t>RXA-17</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=CSM].role[classCode=INST].scopedRole.scoper[classCode=ORG]</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacuturerOrganization/name</t>
-  </si>
-  <si>
-    <t>Immunization.lotNumber</t>
   </si>
   <si>
     <t>ワクチンのロット番号</t>
@@ -4595,13 +4599,13 @@
         <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>89</v>
+        <v>260</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4670,21 +4674,21 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4707,13 +4711,13 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4764,7 +4768,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -4782,10 +4786,10 @@
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
@@ -4796,7 +4800,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4822,10 +4826,10 @@
         <v>178</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4855,10 +4859,10 @@
         <v>182</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>77</v>
@@ -4876,7 +4880,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -4894,21 +4898,21 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4934,10 +4938,10 @@
         <v>178</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4967,10 +4971,10 @@
         <v>182</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>77</v>
@@ -4988,7 +4992,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5006,21 +5010,21 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5043,13 +5047,13 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5100,7 +5104,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5118,10 +5122,10 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
@@ -5132,7 +5136,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5155,13 +5159,13 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5212,7 +5216,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5227,13 +5231,13 @@
         <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
@@ -5244,7 +5248,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5267,13 +5271,13 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>89</v>
+        <v>260</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5324,7 +5328,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5345,7 +5349,7 @@
         <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -5356,7 +5360,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5382,10 +5386,10 @@
         <v>132</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>156</v>
@@ -5438,7 +5442,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5459,7 +5463,7 @@
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -5470,11 +5474,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5496,10 +5500,10 @@
         <v>132</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>156</v>
@@ -5554,7 +5558,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5586,7 +5590,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5612,10 +5616,10 @@
         <v>178</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5642,13 +5646,13 @@
         <v>77</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>77</v>
@@ -5666,7 +5670,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -5681,13 +5685,13 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -5698,7 +5702,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5721,16 +5725,16 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5780,7 +5784,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>87</v>
@@ -5795,16 +5799,16 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -5812,7 +5816,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5835,13 +5839,13 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5892,7 +5896,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -5907,13 +5911,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
@@ -5924,7 +5928,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5950,10 +5954,10 @@
         <v>178</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5983,10 +5987,10 @@
         <v>182</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>77</v>
@@ -6004,7 +6008,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6019,13 +6023,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
@@ -6036,7 +6040,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6059,13 +6063,13 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6116,7 +6120,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6131,7 +6135,7 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>77</v>
@@ -6148,7 +6152,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6174,20 +6178,20 @@
         <v>230</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P40" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q40" t="s" s="2">
         <v>77</v>
@@ -6232,7 +6236,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6250,7 +6254,7 @@
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>130</v>
@@ -6264,7 +6268,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6290,10 +6294,10 @@
         <v>178</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6323,10 +6327,10 @@
         <v>182</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>77</v>
@@ -6344,7 +6348,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6376,7 +6380,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6399,13 +6403,13 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6456,7 +6460,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6468,7 +6472,7 @@
         <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>77</v>
@@ -6488,7 +6492,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6511,13 +6515,13 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>89</v>
+        <v>260</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6568,7 +6572,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6589,7 +6593,7 @@
         <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -6600,7 +6604,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6626,10 +6630,10 @@
         <v>132</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M44" t="s" s="2">
         <v>156</v>
@@ -6682,7 +6686,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -6703,7 +6707,7 @@
         <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
@@ -6714,11 +6718,11 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6740,10 +6744,10 @@
         <v>132</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>156</v>
@@ -6798,7 +6802,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -6830,7 +6834,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6853,13 +6857,13 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>89</v>
+        <v>260</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6910,7 +6914,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -6928,7 +6932,7 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>130</v>
@@ -6942,7 +6946,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6968,10 +6972,10 @@
         <v>101</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7022,7 +7026,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7054,7 +7058,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7080,10 +7084,10 @@
         <v>224</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7134,7 +7138,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7152,7 +7156,7 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>130</v>
@@ -7166,7 +7170,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7192,10 +7196,10 @@
         <v>224</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7246,7 +7250,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7264,7 +7268,7 @@
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>130</v>
@@ -7278,7 +7282,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7304,10 +7308,10 @@
         <v>178</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7337,10 +7341,10 @@
         <v>182</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>77</v>
@@ -7358,7 +7362,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7376,7 +7380,7 @@
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>130</v>
@@ -7390,7 +7394,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7416,10 +7420,10 @@
         <v>178</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7449,10 +7453,10 @@
         <v>182</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>77</v>
@@ -7470,7 +7474,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7502,7 +7506,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7525,16 +7529,16 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7584,7 +7588,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7602,10 +7606,10 @@
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>77</v>
@@ -7616,7 +7620,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7639,13 +7643,13 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>260</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7696,7 +7700,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -7717,7 +7721,7 @@
         <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>77</v>
@@ -7728,7 +7732,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7754,10 +7758,10 @@
         <v>132</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>156</v>
@@ -7810,7 +7814,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -7831,7 +7835,7 @@
         <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
@@ -7842,11 +7846,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7868,10 +7872,10 @@
         <v>132</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>156</v>
@@ -7926,7 +7930,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -7958,7 +7962,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7984,10 +7988,10 @@
         <v>224</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8038,7 +8042,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8056,7 +8060,7 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>220</v>
@@ -8070,7 +8074,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8093,13 +8097,13 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8150,7 +8154,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8168,10 +8172,10 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>77</v>
@@ -8182,7 +8186,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8208,10 +8212,10 @@
         <v>230</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8262,7 +8266,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8280,10 +8284,10 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>77</v>
@@ -8294,7 +8298,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8317,13 +8321,13 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8374,7 +8378,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8406,7 +8410,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8429,13 +8433,13 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>89</v>
+        <v>260</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8486,7 +8490,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8507,7 +8511,7 @@
         <v>77</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
@@ -8518,7 +8522,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8544,10 +8548,10 @@
         <v>132</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M61" t="s" s="2">
         <v>156</v>
@@ -8600,7 +8604,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -8621,7 +8625,7 @@
         <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>77</v>
@@ -8632,11 +8636,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8658,10 +8662,10 @@
         <v>132</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>156</v>
@@ -8716,7 +8720,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -8748,7 +8752,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8771,13 +8775,13 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>89</v>
+        <v>260</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8828,7 +8832,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -8860,7 +8864,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8886,10 +8890,10 @@
         <v>253</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8940,7 +8944,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -8972,7 +8976,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8998,10 +9002,10 @@
         <v>178</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9031,10 +9035,10 @@
         <v>182</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>77</v>
@@ -9052,7 +9056,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9084,7 +9088,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9107,16 +9111,16 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9166,7 +9170,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>87</v>
@@ -9198,7 +9202,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9221,16 +9225,16 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9280,7 +9284,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-immunization.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-immunization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2421" uniqueCount="444">
   <si>
     <t>Property</t>
   </si>
@@ -909,7 +909,7 @@
     <t>Immunization.doseQuantity</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationSimpleQuantity}
 </t>
   </si>
   <si>
@@ -919,10 +919,17 @@
     <t>ワクチン製剤が接種された量</t>
   </si>
   <si>
-    <t>RXA-6 / RXA-7</t>
-  </si>
-  <si>
-    <t>.doseQuantity</t>
+    <t>薬剤に関する簡易的な数量と単位を定めている。ValueおよびCodeを必須とし、comparatorは記述不可。単位についてはMERIT9医薬品単位略号の利用を推進している。(**SHOULD**)</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
+  </si>
+  <si>
+    <t>SN (see also Range) or CQ</t>
+  </si>
+  <si>
+    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
   </si>
   <si>
     <t>Immunization.performer</t>
@@ -5055,7 +5062,9 @@
       <c r="L30" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="M30" s="2"/>
+      <c r="M30" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>77</v>
@@ -5113,19 +5122,19 @@
         <v>87</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>99</v>
+        <v>292</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
@@ -5136,7 +5145,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5159,13 +5168,13 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5216,7 +5225,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5231,13 +5240,13 @@
         <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
@@ -5248,7 +5257,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5274,10 +5283,10 @@
         <v>260</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5328,7 +5337,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5349,7 +5358,7 @@
         <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -5360,7 +5369,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5386,10 +5395,10 @@
         <v>132</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>156</v>
@@ -5442,7 +5451,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5463,7 +5472,7 @@
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -5474,11 +5483,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5500,10 +5509,10 @@
         <v>132</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>156</v>
@@ -5558,7 +5567,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5590,7 +5599,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5616,10 +5625,10 @@
         <v>178</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5646,13 +5655,13 @@
         <v>77</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>77</v>
@@ -5670,7 +5679,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -5685,13 +5694,13 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -5702,7 +5711,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5725,16 +5734,16 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5784,7 +5793,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>87</v>
@@ -5799,16 +5808,16 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -5816,7 +5825,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5839,13 +5848,13 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5896,7 +5905,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -5911,13 +5920,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
@@ -5928,7 +5937,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5954,10 +5963,10 @@
         <v>178</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5987,10 +5996,10 @@
         <v>182</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>77</v>
@@ -6008,7 +6017,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6023,13 +6032,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
@@ -6040,7 +6049,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6063,13 +6072,13 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6120,7 +6129,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6135,7 +6144,7 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>77</v>
@@ -6152,7 +6161,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6178,20 +6187,20 @@
         <v>230</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P40" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q40" t="s" s="2">
         <v>77</v>
@@ -6236,7 +6245,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6254,7 +6263,7 @@
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>130</v>
@@ -6268,7 +6277,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6294,10 +6303,10 @@
         <v>178</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6327,10 +6336,10 @@
         <v>182</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>77</v>
@@ -6348,7 +6357,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6380,7 +6389,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6403,13 +6412,13 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6460,7 +6469,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6472,7 +6481,7 @@
         <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>77</v>
@@ -6492,7 +6501,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6518,10 +6527,10 @@
         <v>260</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6572,7 +6581,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6593,7 +6602,7 @@
         <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -6604,7 +6613,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6630,10 +6639,10 @@
         <v>132</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M44" t="s" s="2">
         <v>156</v>
@@ -6686,7 +6695,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -6707,7 +6716,7 @@
         <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
@@ -6718,11 +6727,11 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6744,10 +6753,10 @@
         <v>132</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>156</v>
@@ -6802,7 +6811,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -6834,7 +6843,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6860,10 +6869,10 @@
         <v>260</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6914,7 +6923,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -6932,7 +6941,7 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>130</v>
@@ -6946,7 +6955,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6972,10 +6981,10 @@
         <v>101</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7026,7 +7035,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7058,7 +7067,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7084,10 +7093,10 @@
         <v>224</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7138,7 +7147,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7156,7 +7165,7 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>130</v>
@@ -7170,7 +7179,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7196,10 +7205,10 @@
         <v>224</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7250,7 +7259,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7268,7 +7277,7 @@
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>130</v>
@@ -7282,7 +7291,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7308,10 +7317,10 @@
         <v>178</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7341,10 +7350,10 @@
         <v>182</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>77</v>
@@ -7362,7 +7371,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7380,7 +7389,7 @@
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>130</v>
@@ -7394,7 +7403,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7420,10 +7429,10 @@
         <v>178</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7453,10 +7462,10 @@
         <v>182</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>77</v>
@@ -7474,7 +7483,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7506,7 +7515,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7529,16 +7538,16 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7588,7 +7597,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7606,10 +7615,10 @@
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>77</v>
@@ -7620,7 +7629,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7646,10 +7655,10 @@
         <v>260</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7700,7 +7709,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -7721,7 +7730,7 @@
         <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>77</v>
@@ -7732,7 +7741,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7758,10 +7767,10 @@
         <v>132</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>156</v>
@@ -7814,7 +7823,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -7835,7 +7844,7 @@
         <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
@@ -7846,11 +7855,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7872,10 +7881,10 @@
         <v>132</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>156</v>
@@ -7930,7 +7939,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -7962,7 +7971,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7988,10 +7997,10 @@
         <v>224</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8042,7 +8051,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8060,7 +8069,7 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>220</v>
@@ -8074,7 +8083,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8097,13 +8106,13 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8154,7 +8163,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8172,10 +8181,10 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>77</v>
@@ -8186,7 +8195,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8212,10 +8221,10 @@
         <v>230</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8266,7 +8275,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8284,10 +8293,10 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>77</v>
@@ -8298,7 +8307,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8321,13 +8330,13 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8378,7 +8387,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8410,7 +8419,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8436,10 +8445,10 @@
         <v>260</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8490,7 +8499,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8511,7 +8520,7 @@
         <v>77</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
@@ -8522,7 +8531,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8548,10 +8557,10 @@
         <v>132</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M61" t="s" s="2">
         <v>156</v>
@@ -8604,7 +8613,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -8625,7 +8634,7 @@
         <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>77</v>
@@ -8636,11 +8645,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8662,10 +8671,10 @@
         <v>132</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>156</v>
@@ -8720,7 +8729,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -8752,7 +8761,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8778,10 +8787,10 @@
         <v>260</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8832,7 +8841,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -8864,7 +8873,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8890,10 +8899,10 @@
         <v>253</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8944,7 +8953,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -8976,7 +8985,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9002,10 +9011,10 @@
         <v>178</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9035,10 +9044,10 @@
         <v>182</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>77</v>
@@ -9056,7 +9065,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9088,7 +9097,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9111,16 +9120,16 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9170,7 +9179,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>87</v>
@@ -9202,7 +9211,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9225,16 +9234,16 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9284,7 +9293,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-immunization.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-immunization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2421" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2421" uniqueCount="445">
   <si>
     <t>Property</t>
   </si>
@@ -630,7 +630,7 @@
     <t>Immunization.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient)
 </t>
   </si>
   <si>
@@ -655,7 +655,7 @@
     <t>Immunization.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Encounter)
 </t>
   </si>
   <si>
@@ -776,7 +776,7 @@
     <t>Immunization.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Location)
 </t>
   </si>
   <si>
@@ -799,547 +799,551 @@
   </si>
   <si>
     <t>Immunization.manufacturer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Organization)
+</t>
+  </si>
+  <si>
+    <t>ワクチンメーカー</t>
+  </si>
+  <si>
+    <t>ワクチメーカーの名前。</t>
+  </si>
+  <si>
+    <t>RXA-17</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=CSM].role[classCode=INST].scopedRole.scoper[classCode=ORG]</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacuturerOrganization/name</t>
+  </si>
+  <si>
+    <t>Immunization.lotNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>ワクチンのロット番号</t>
+  </si>
+  <si>
+    <t>ワクチン製剤のロット番号。</t>
+  </si>
+  <si>
+    <t>RXA-15</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=CSM].role[classCode=INST].scopedRole.scoper[classCode=MMAT].id</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacturedMaterial/lotNumberText</t>
+  </si>
+  <si>
+    <t>Immunization.expirationDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date
+</t>
+  </si>
+  <si>
+    <t>ワクチンの使用期限</t>
+  </si>
+  <si>
+    <t>ワクチンの消費期限を表す日。</t>
+  </si>
+  <si>
+    <t>RXA-16</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=CSM].role[classCode=INST].scopedRole.scoper[classCode=MMAT].expirationTime</t>
+  </si>
+  <si>
+    <t>Immunization.site</t>
+  </si>
+  <si>
+    <t>ワクチンが接種された身体部位</t>
+  </si>
+  <si>
+    <t>The site at which the vaccine was administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-site</t>
+  </si>
+  <si>
+    <t>RXR-2</t>
+  </si>
+  <si>
+    <t>observation.targetSiteCode</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/approachSiteCode/code</t>
+  </si>
+  <si>
+    <t>Immunization.route</t>
+  </si>
+  <si>
+    <t>ワクチンを接種した経路</t>
+  </si>
+  <si>
+    <t>ワクチンが体内へと接種された経路。</t>
+  </si>
+  <si>
+    <t>The route by which the vaccine was administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-route</t>
+  </si>
+  <si>
+    <t>RXR-1</t>
+  </si>
+  <si>
+    <t>.routeCode</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/routeCode/code</t>
+  </si>
+  <si>
+    <t>Immunization.doseQuantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationSimpleQuantity}
+</t>
+  </si>
+  <si>
+    <t>ワクチンの投与量</t>
+  </si>
+  <si>
+    <t>ワクチン製剤が接種された量</t>
+  </si>
+  <si>
+    <t>薬剤に関する簡易的な数量と単位を定めている。ValueおよびCodeを必須とし、comparatorは記述不可。単位についてはMERIT9医薬品単位略号の利用を推進している。(**SHOULD**)</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
+  </si>
+  <si>
+    <t>SN (see also Range) or CQ</t>
+  </si>
+  <si>
+    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
+  </si>
+  <si>
+    <t>Immunization.performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>ワクチン接種を実施した人</t>
+  </si>
+  <si>
+    <t>誰が予防接種を実施したかを表す。</t>
+  </si>
+  <si>
+    <t>Event.performer</t>
+  </si>
+  <si>
+    <t>ORC-12 / RXA-10</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=PRF].role[scoper.determinerCode=INSTANCE]</t>
+  </si>
+  <si>
+    <t>Immunization.performer.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Immunization.performer.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Immunization.performer.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>Immunization.performer.function</t>
+  </si>
+  <si>
+    <t>What type of performance was done</t>
+  </si>
+  <si>
+    <t>Describes the type of performance (e.g. ordering provider, administering provider, etc.).</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>The role a practitioner or organization plays in the immunization event.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-function</t>
+  </si>
+  <si>
+    <t>Event.performer.function</t>
+  </si>
+  <si>
+    <t>.participation.functionCode</t>
+  </si>
+  <si>
+    <t>Immunization.performer.actor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Practitioner|http://jpfhir.jp/fhir/core/StructureDefinition/JP_PractitionerRole|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Organization)
+</t>
+  </si>
+  <si>
+    <t>Individual or organization who was performing</t>
+  </si>
+  <si>
+    <t>The practitioner or organization who performed the action.</t>
+  </si>
+  <si>
+    <t>When the individual practitioner who performed the action is known, it is best to send.</t>
+  </si>
+  <si>
+    <t>Event.performer.actor</t>
+  </si>
+  <si>
+    <t>.player</t>
+  </si>
+  <si>
+    <t>FiveWs.actor</t>
+  </si>
+  <si>
+    <t>Immunization.note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotation
+</t>
+  </si>
+  <si>
+    <t>予防接種についての補足的記録</t>
+  </si>
+  <si>
+    <t>他の属性で伝達することができない予防接種に関する他の記録。</t>
+  </si>
+  <si>
+    <t>Event.note</t>
+  </si>
+  <si>
+    <t>OBX-5 : OBX-3 = 48767-8</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>Immunization.reasonCode</t>
+  </si>
+  <si>
+    <t>予防接種を接種した理由</t>
+  </si>
+  <si>
+    <t>予防接種が行われた理由</t>
+  </si>
+  <si>
+    <t>The reason why a vaccine was administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-reason</t>
+  </si>
+  <si>
+    <t>Event.reasonCode</t>
+  </si>
+  <si>
+    <t>[actionNegationInd=false].reasonCode</t>
+  </si>
+  <si>
+    <t>Immunization.reasonReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport)
+</t>
+  </si>
+  <si>
+    <t>予防接種を実施した理由</t>
+  </si>
+  <si>
+    <t>予防接種が実施された理由を表すCondition，ObservationあるいはDiagnosticReportリソースを参照する。</t>
+  </si>
+  <si>
+    <t>Event.reasonReference</t>
+  </si>
+  <si>
+    <t>Immunization.isSubpotent</t>
+  </si>
+  <si>
+    <t>効力量</t>
+  </si>
+  <si>
+    <t>量が通常の効力より弱いと考えられているかどうかを示す。デフォルトでは示されている量と同等の効力をもつと考えられている。</t>
+  </si>
+  <si>
+    <t>Typically, the recognition of the dose being sub-potent is retrospective, after the administration (ex. notification of a manufacturer recall after administration). However, in the case of a partial administration (the patient moves unexpectedly and only some of the dose is actually administered), subpotency may be recognized immediately, but it is still important to record the event.</t>
+  </si>
+  <si>
+    <t>By default, a dose should be considered to be potent.</t>
+  </si>
+  <si>
+    <t>RXA-20 = PA (partial administration)</t>
+  </si>
+  <si>
+    <t>Immunization.subpotentReason</t>
+  </si>
+  <si>
+    <t>効力が減弱する理由</t>
+  </si>
+  <si>
+    <t>効力が減弱すると考えられている理由。</t>
+  </si>
+  <si>
+    <t>The reason why a dose is considered to be subpotent.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-subpotent-reason</t>
+  </si>
+  <si>
+    <t>Immunization.education</t>
+  </si>
+  <si>
+    <t>患者に提示された教材</t>
+  </si>
+  <si>
+    <t>ワクチンを接種するときに患者（あるいは保護者）に提示された教材。</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+imm-1:One of documentType or reference SHALL be present {documentType.exists() or reference.exists()}</t>
+  </si>
+  <si>
+    <t>Immunization.education.id</t>
+  </si>
+  <si>
+    <t>Immunization.education.extension</t>
+  </si>
+  <si>
+    <t>Immunization.education.modifierExtension</t>
+  </si>
+  <si>
+    <t>Immunization.education.documentType</t>
+  </si>
+  <si>
+    <t>Educational material document identifier</t>
+  </si>
+  <si>
+    <t>Identifier of the material presented to the patient.</t>
+  </si>
+  <si>
+    <t>OBX-5 : OBX-3 = 69764-9</t>
+  </si>
+  <si>
+    <t>Immunization.education.reference</t>
+  </si>
+  <si>
+    <t>Educational material reference pointer</t>
+  </si>
+  <si>
+    <t>Reference pointer to the educational material given to the patient if the information was on line.</t>
+  </si>
+  <si>
+    <t>Immunization.education.publicationDate</t>
+  </si>
+  <si>
+    <t>Educational material publication date</t>
+  </si>
+  <si>
+    <t>Date the educational material was published.</t>
+  </si>
+  <si>
+    <t>OBX-5 : OBX-3 = 29768-9</t>
+  </si>
+  <si>
+    <t>Immunization.education.presentationDate</t>
+  </si>
+  <si>
+    <t>Educational material presentation date</t>
+  </si>
+  <si>
+    <t>Date the educational material was given to the patient.</t>
+  </si>
+  <si>
+    <t>OBX-5 : OBX-3 = 29769-7</t>
+  </si>
+  <si>
+    <t>Immunization.programEligibility</t>
+  </si>
+  <si>
+    <t>ワクチン接種計画での患者適格性</t>
+  </si>
+  <si>
+    <t>ワクチン接種計画での患者適格性を示す</t>
+  </si>
+  <si>
+    <t>The patient's eligibility for a vaccation program.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-program-eligibility</t>
+  </si>
+  <si>
+    <t>OBX-5 : OBX-3 = 64994-7</t>
+  </si>
+  <si>
+    <t>Immunization.fundingSource</t>
+  </si>
+  <si>
+    <t>ワクチン接種計画のの資金源</t>
+  </si>
+  <si>
+    <t>ワクチンが実際に接種されるときの資金源を示す。これは患者適格性（たとえば，公的に購入されたワクチンには適格性があるが，在庫の問題で私的資金で購入されたワクチンを投与するような場合）とは異なることがある。</t>
+  </si>
+  <si>
+    <t>The source of funding used to purchase the vaccine administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-funding-source</t>
+  </si>
+  <si>
+    <t>Immunization.reaction</t>
+  </si>
+  <si>
+    <t>予防接種後に起こった反応についての詳細な記録</t>
+  </si>
+  <si>
+    <t>予防接種に関連する時期に発生した副反応を示す分類されたデータ。</t>
+  </si>
+  <si>
+    <t>A reaction may be an indication of an allergy or intolerance and, if this is determined to be the case, it should be recorded as a new AllergyIntolerance resource instance as most systems will not query against past Immunization.reaction elements.</t>
+  </si>
+  <si>
+    <t>OBX-3</t>
+  </si>
+  <si>
+    <t>Observation[classCode=obs].code</t>
+  </si>
+  <si>
+    <t>Immunization.reaction.id</t>
+  </si>
+  <si>
+    <t>Immunization.reaction.extension</t>
+  </si>
+  <si>
+    <t>Immunization.reaction.modifierExtension</t>
+  </si>
+  <si>
+    <t>Immunization.reaction.date</t>
+  </si>
+  <si>
+    <t>When reaction started</t>
+  </si>
+  <si>
+    <t>Date of reaction to the immunization.</t>
+  </si>
+  <si>
+    <t>OBX-14 (ideally this would be reported in an IAM segment, but IAM is not part of the HL7 v2 VXU message - most likely would appear in OBX segments if at all)</t>
+  </si>
+  <si>
+    <t>Immunization.reaction.detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Observation)
+</t>
+  </si>
+  <si>
+    <t>Additional information on reaction</t>
+  </si>
+  <si>
+    <t>Details of the reaction.</t>
+  </si>
+  <si>
+    <t>OBX-5</t>
+  </si>
+  <si>
+    <t>.value</t>
+  </si>
+  <si>
+    <t>Immunization.reaction.reported</t>
+  </si>
+  <si>
+    <t>Indicates self-reported reaction</t>
+  </si>
+  <si>
+    <t>Self-reported indicator.</t>
+  </si>
+  <si>
+    <t>(HL7 v2 doesn't seem to provide for this)</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=INF].role[classCode=PAT] (this syntax for self-reported=true)</t>
+  </si>
+  <si>
+    <t>Immunization.protocolApplied</t>
+  </si>
+  <si>
+    <t>提供者が実施したプロトコール</t>
+  </si>
+  <si>
+    <t>ワクチンを接種した提供者が実施したプロトコール（推奨される手順の集合）。</t>
+  </si>
+  <si>
+    <t>Immunization.protocolApplied.id</t>
+  </si>
+  <si>
+    <t>Immunization.protocolApplied.extension</t>
+  </si>
+  <si>
+    <t>Immunization.protocolApplied.modifierExtension</t>
+  </si>
+  <si>
+    <t>Immunization.protocolApplied.series</t>
+  </si>
+  <si>
+    <t>Name of vaccine series</t>
+  </si>
+  <si>
+    <t>One possible path to achieve presumed immunity against a disease - within the context of an authority.</t>
+  </si>
+  <si>
+    <t>Immunization.protocolApplied.authority</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(Organization)
 </t>
-  </si>
-  <si>
-    <t>ワクチンメーカー</t>
-  </si>
-  <si>
-    <t>ワクチメーカーの名前。</t>
-  </si>
-  <si>
-    <t>RXA-17</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=CSM].role[classCode=INST].scopedRole.scoper[classCode=ORG]</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacuturerOrganization/name</t>
-  </si>
-  <si>
-    <t>Immunization.lotNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>ワクチンのロット番号</t>
-  </si>
-  <si>
-    <t>ワクチン製剤のロット番号。</t>
-  </si>
-  <si>
-    <t>RXA-15</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=CSM].role[classCode=INST].scopedRole.scoper[classCode=MMAT].id</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacturedMaterial/lotNumberText</t>
-  </si>
-  <si>
-    <t>Immunization.expirationDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date
-</t>
-  </si>
-  <si>
-    <t>ワクチンの使用期限</t>
-  </si>
-  <si>
-    <t>ワクチンの消費期限を表す日。</t>
-  </si>
-  <si>
-    <t>RXA-16</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=CSM].role[classCode=INST].scopedRole.scoper[classCode=MMAT].expirationTime</t>
-  </si>
-  <si>
-    <t>Immunization.site</t>
-  </si>
-  <si>
-    <t>ワクチンが接種された身体部位</t>
-  </si>
-  <si>
-    <t>The site at which the vaccine was administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-site</t>
-  </si>
-  <si>
-    <t>RXR-2</t>
-  </si>
-  <si>
-    <t>observation.targetSiteCode</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/approachSiteCode/code</t>
-  </si>
-  <si>
-    <t>Immunization.route</t>
-  </si>
-  <si>
-    <t>ワクチンを接種した経路</t>
-  </si>
-  <si>
-    <t>ワクチンが体内へと接種された経路。</t>
-  </si>
-  <si>
-    <t>The route by which the vaccine was administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-route</t>
-  </si>
-  <si>
-    <t>RXR-1</t>
-  </si>
-  <si>
-    <t>.routeCode</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/routeCode/code</t>
-  </si>
-  <si>
-    <t>Immunization.doseQuantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationSimpleQuantity}
-</t>
-  </si>
-  <si>
-    <t>ワクチンの投与量</t>
-  </si>
-  <si>
-    <t>ワクチン製剤が接種された量</t>
-  </si>
-  <si>
-    <t>薬剤に関する簡易的な数量と単位を定めている。ValueおよびCodeを必須とし、comparatorは記述不可。単位についてはMERIT9医薬品単位略号の利用を推進している。(**SHOULD**)</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
-  </si>
-  <si>
-    <t>SN (see also Range) or CQ</t>
-  </si>
-  <si>
-    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
-  </si>
-  <si>
-    <t>Immunization.performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>ワクチン接種を実施した人</t>
-  </si>
-  <si>
-    <t>誰が予防接種を実施したかを表す。</t>
-  </si>
-  <si>
-    <t>Event.performer</t>
-  </si>
-  <si>
-    <t>ORC-12 / RXA-10</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=PRF].role[scoper.determinerCode=INSTANCE]</t>
-  </si>
-  <si>
-    <t>Immunization.performer.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Immunization.performer.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Immunization.performer.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>Immunization.performer.function</t>
-  </si>
-  <si>
-    <t>What type of performance was done</t>
-  </si>
-  <si>
-    <t>Describes the type of performance (e.g. ordering provider, administering provider, etc.).</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>The role a practitioner or organization plays in the immunization event.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-function</t>
-  </si>
-  <si>
-    <t>Event.performer.function</t>
-  </si>
-  <si>
-    <t>.participation.functionCode</t>
-  </si>
-  <si>
-    <t>Immunization.performer.actor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
-</t>
-  </si>
-  <si>
-    <t>Individual or organization who was performing</t>
-  </si>
-  <si>
-    <t>The practitioner or organization who performed the action.</t>
-  </si>
-  <si>
-    <t>When the individual practitioner who performed the action is known, it is best to send.</t>
-  </si>
-  <si>
-    <t>Event.performer.actor</t>
-  </si>
-  <si>
-    <t>.player</t>
-  </si>
-  <si>
-    <t>FiveWs.actor</t>
-  </si>
-  <si>
-    <t>Immunization.note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annotation
-</t>
-  </si>
-  <si>
-    <t>予防接種についての補足的記録</t>
-  </si>
-  <si>
-    <t>他の属性で伝達することができない予防接種に関する他の記録。</t>
-  </si>
-  <si>
-    <t>Event.note</t>
-  </si>
-  <si>
-    <t>OBX-5 : OBX-3 = 48767-8</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>Immunization.reasonCode</t>
-  </si>
-  <si>
-    <t>予防接種を接種した理由</t>
-  </si>
-  <si>
-    <t>予防接種が行われた理由</t>
-  </si>
-  <si>
-    <t>The reason why a vaccine was administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-reason</t>
-  </si>
-  <si>
-    <t>Event.reasonCode</t>
-  </si>
-  <si>
-    <t>[actionNegationInd=false].reasonCode</t>
-  </si>
-  <si>
-    <t>Immunization.reasonReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport)
-</t>
-  </si>
-  <si>
-    <t>予防接種を実施した理由</t>
-  </si>
-  <si>
-    <t>予防接種が実施された理由を表すCondition，ObservationあるいはDiagnosticReportリソースを参照する。</t>
-  </si>
-  <si>
-    <t>Event.reasonReference</t>
-  </si>
-  <si>
-    <t>Immunization.isSubpotent</t>
-  </si>
-  <si>
-    <t>効力量</t>
-  </si>
-  <si>
-    <t>量が通常の効力より弱いと考えられているかどうかを示す。デフォルトでは示されている量と同等の効力をもつと考えられている。</t>
-  </si>
-  <si>
-    <t>Typically, the recognition of the dose being sub-potent is retrospective, after the administration (ex. notification of a manufacturer recall after administration). However, in the case of a partial administration (the patient moves unexpectedly and only some of the dose is actually administered), subpotency may be recognized immediately, but it is still important to record the event.</t>
-  </si>
-  <si>
-    <t>By default, a dose should be considered to be potent.</t>
-  </si>
-  <si>
-    <t>RXA-20 = PA (partial administration)</t>
-  </si>
-  <si>
-    <t>Immunization.subpotentReason</t>
-  </si>
-  <si>
-    <t>効力が減弱する理由</t>
-  </si>
-  <si>
-    <t>効力が減弱すると考えられている理由。</t>
-  </si>
-  <si>
-    <t>The reason why a dose is considered to be subpotent.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-subpotent-reason</t>
-  </si>
-  <si>
-    <t>Immunization.education</t>
-  </si>
-  <si>
-    <t>患者に提示された教材</t>
-  </si>
-  <si>
-    <t>ワクチンを接種するときに患者（あるいは保護者）に提示された教材。</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-imm-1:One of documentType or reference SHALL be present {documentType.exists() or reference.exists()}</t>
-  </si>
-  <si>
-    <t>Immunization.education.id</t>
-  </si>
-  <si>
-    <t>Immunization.education.extension</t>
-  </si>
-  <si>
-    <t>Immunization.education.modifierExtension</t>
-  </si>
-  <si>
-    <t>Immunization.education.documentType</t>
-  </si>
-  <si>
-    <t>Educational material document identifier</t>
-  </si>
-  <si>
-    <t>Identifier of the material presented to the patient.</t>
-  </si>
-  <si>
-    <t>OBX-5 : OBX-3 = 69764-9</t>
-  </si>
-  <si>
-    <t>Immunization.education.reference</t>
-  </si>
-  <si>
-    <t>Educational material reference pointer</t>
-  </si>
-  <si>
-    <t>Reference pointer to the educational material given to the patient if the information was on line.</t>
-  </si>
-  <si>
-    <t>Immunization.education.publicationDate</t>
-  </si>
-  <si>
-    <t>Educational material publication date</t>
-  </si>
-  <si>
-    <t>Date the educational material was published.</t>
-  </si>
-  <si>
-    <t>OBX-5 : OBX-3 = 29768-9</t>
-  </si>
-  <si>
-    <t>Immunization.education.presentationDate</t>
-  </si>
-  <si>
-    <t>Educational material presentation date</t>
-  </si>
-  <si>
-    <t>Date the educational material was given to the patient.</t>
-  </si>
-  <si>
-    <t>OBX-5 : OBX-3 = 29769-7</t>
-  </si>
-  <si>
-    <t>Immunization.programEligibility</t>
-  </si>
-  <si>
-    <t>ワクチン接種計画での患者適格性</t>
-  </si>
-  <si>
-    <t>ワクチン接種計画での患者適格性を示す</t>
-  </si>
-  <si>
-    <t>The patient's eligibility for a vaccation program.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-program-eligibility</t>
-  </si>
-  <si>
-    <t>OBX-5 : OBX-3 = 64994-7</t>
-  </si>
-  <si>
-    <t>Immunization.fundingSource</t>
-  </si>
-  <si>
-    <t>ワクチン接種計画のの資金源</t>
-  </si>
-  <si>
-    <t>ワクチンが実際に接種されるときの資金源を示す。これは患者適格性（たとえば，公的に購入されたワクチンには適格性があるが，在庫の問題で私的資金で購入されたワクチンを投与するような場合）とは異なることがある。</t>
-  </si>
-  <si>
-    <t>The source of funding used to purchase the vaccine administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-funding-source</t>
-  </si>
-  <si>
-    <t>Immunization.reaction</t>
-  </si>
-  <si>
-    <t>予防接種後に起こった反応についての詳細な記録</t>
-  </si>
-  <si>
-    <t>予防接種に関連する時期に発生した副反応を示す分類されたデータ。</t>
-  </si>
-  <si>
-    <t>A reaction may be an indication of an allergy or intolerance and, if this is determined to be the case, it should be recorded as a new AllergyIntolerance resource instance as most systems will not query against past Immunization.reaction elements.</t>
-  </si>
-  <si>
-    <t>OBX-3</t>
-  </si>
-  <si>
-    <t>Observation[classCode=obs].code</t>
-  </si>
-  <si>
-    <t>Immunization.reaction.id</t>
-  </si>
-  <si>
-    <t>Immunization.reaction.extension</t>
-  </si>
-  <si>
-    <t>Immunization.reaction.modifierExtension</t>
-  </si>
-  <si>
-    <t>Immunization.reaction.date</t>
-  </si>
-  <si>
-    <t>When reaction started</t>
-  </si>
-  <si>
-    <t>Date of reaction to the immunization.</t>
-  </si>
-  <si>
-    <t>OBX-14 (ideally this would be reported in an IAM segment, but IAM is not part of the HL7 v2 VXU message - most likely would appear in OBX segments if at all)</t>
-  </si>
-  <si>
-    <t>Immunization.reaction.detail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Observation)
-</t>
-  </si>
-  <si>
-    <t>Additional information on reaction</t>
-  </si>
-  <si>
-    <t>Details of the reaction.</t>
-  </si>
-  <si>
-    <t>OBX-5</t>
-  </si>
-  <si>
-    <t>.value</t>
-  </si>
-  <si>
-    <t>Immunization.reaction.reported</t>
-  </si>
-  <si>
-    <t>Indicates self-reported reaction</t>
-  </si>
-  <si>
-    <t>Self-reported indicator.</t>
-  </si>
-  <si>
-    <t>(HL7 v2 doesn't seem to provide for this)</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=INF].role[classCode=PAT] (this syntax for self-reported=true)</t>
-  </si>
-  <si>
-    <t>Immunization.protocolApplied</t>
-  </si>
-  <si>
-    <t>提供者が実施したプロトコール</t>
-  </si>
-  <si>
-    <t>ワクチンを接種した提供者が実施したプロトコール（推奨される手順の集合）。</t>
-  </si>
-  <si>
-    <t>Immunization.protocolApplied.id</t>
-  </si>
-  <si>
-    <t>Immunization.protocolApplied.extension</t>
-  </si>
-  <si>
-    <t>Immunization.protocolApplied.modifierExtension</t>
-  </si>
-  <si>
-    <t>Immunization.protocolApplied.series</t>
-  </si>
-  <si>
-    <t>Name of vaccine series</t>
-  </si>
-  <si>
-    <t>One possible path to achieve presumed immunity against a disease - within the context of an authority.</t>
-  </si>
-  <si>
-    <t>Immunization.protocolApplied.authority</t>
   </si>
   <si>
     <t>Who is responsible for publishing the recommendations</t>
@@ -8896,13 +8900,13 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>253</v>
+        <v>429</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8985,7 +8989,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9011,10 +9015,10 @@
         <v>178</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9044,10 +9048,10 @@
         <v>182</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>77</v>
@@ -9065,7 +9069,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9097,7 +9101,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9120,16 +9124,16 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9179,7 +9183,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>87</v>
@@ -9211,7 +9215,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9234,16 +9238,16 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9293,7 +9297,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
